--- a/Examples/68Bus_MedInertia_InterAreaMode.xlsx
+++ b/Examples/68Bus_MedInertia_InterAreaMode.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Power-System-Analysis-Toolbox\Examples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC5CCB32-BC7F-4C80-86D7-C9E030D9B5E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7163ADB3-0065-44AB-A916-AD6A5117A19A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="10395" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="38640" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Bus" sheetId="1" r:id="rId1"/>
@@ -3293,7 +3293,7 @@
   <dimension ref="A1:J70"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -3338,7 +3338,7 @@
         <v>0</v>
       </c>
       <c r="C3" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D3" s="14">
         <v>150</v>
@@ -3360,7 +3360,7 @@
         <v>0</v>
       </c>
       <c r="C4" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D4" s="14">
         <v>150</v>
@@ -3383,7 +3383,7 @@
         <v>0</v>
       </c>
       <c r="C5" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5" s="14">
         <v>150</v>
@@ -3405,7 +3405,7 @@
         <v>0</v>
       </c>
       <c r="C6" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D6" s="14">
         <v>150</v>
@@ -3427,7 +3427,7 @@
         <v>0</v>
       </c>
       <c r="C7" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D7" s="14">
         <v>150</v>
@@ -3449,7 +3449,7 @@
         <v>0</v>
       </c>
       <c r="C8" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D8" s="14">
         <v>150</v>
@@ -3471,7 +3471,7 @@
         <v>0</v>
       </c>
       <c r="C9" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D9" s="14">
         <v>150</v>
@@ -3493,7 +3493,7 @@
         <v>0</v>
       </c>
       <c r="C10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D10" s="14">
         <v>150</v>
@@ -3515,7 +3515,7 @@
         <v>0</v>
       </c>
       <c r="C11" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D11" s="14">
         <v>150</v>
@@ -3537,7 +3537,7 @@
         <v>0</v>
       </c>
       <c r="C12" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="14">
         <v>150</v>
@@ -3559,7 +3559,7 @@
         <v>0</v>
       </c>
       <c r="C13" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="14">
         <v>150</v>
@@ -3581,7 +3581,7 @@
         <v>0</v>
       </c>
       <c r="C14" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D14" s="14">
         <v>150</v>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="C15" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D15" s="14">
         <v>150</v>
@@ -3625,7 +3625,7 @@
         <v>0</v>
       </c>
       <c r="C16" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D16" s="14">
         <v>150</v>
@@ -3647,7 +3647,7 @@
         <v>0</v>
       </c>
       <c r="C17" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D17" s="14">
         <v>150</v>
@@ -3669,7 +3669,7 @@
         <v>0</v>
       </c>
       <c r="C18" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18" s="14">
         <v>150</v>
